--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject5.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject5.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,7 +131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="0">
         <v>0</v>
@@ -218,7 +218,7 @@
         <v>0</v>
       </c>
       <c r="AE1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF1" s="0">
         <v>0</v>
@@ -242,7 +242,7 @@
         <v>0</v>
       </c>
       <c r="AM1" s="0">
-        <v>0</v>
+        <v>0.73438722394983769</v>
       </c>
       <c r="AN1" s="0">
         <v>0</v>
@@ -254,10 +254,10 @@
         <v>0</v>
       </c>
       <c r="AQ1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR1" s="0">
-        <v>0</v>
+        <v>0.51516788350107356</v>
       </c>
       <c r="AS1" s="0">
         <v>0</v>
@@ -284,7 +284,7 @@
         <v>0</v>
       </c>
       <c r="BA1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB1" s="0">
         <v>0</v>
@@ -329,12 +329,12 @@
         <v>0</v>
       </c>
       <c r="BP1" s="0">
-        <v>0</v>
+        <v>0.59993430092741606</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -394,7 +394,7 @@
         <v>0</v>
       </c>
       <c r="U2" s="0">
-        <v>0</v>
+        <v>0.80161034449233481</v>
       </c>
       <c r="V2" s="0">
         <v>0</v>
@@ -499,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="BD2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE2" s="0">
         <v>0</v>
@@ -526,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="BM2" s="0">
-        <v>0</v>
+        <v>0.55867748528502426</v>
       </c>
       <c r="BN2" s="0">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="0">
         <v>0</v>
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="AD3" s="0">
-        <v>0</v>
+        <v>0.5641226821529759</v>
       </c>
       <c r="AE3" s="0">
         <v>0</v>
       </c>
       <c r="AF3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="0">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="AN3" s="0">
-        <v>0</v>
+        <v>0.7376627834049081</v>
       </c>
       <c r="AO3" s="0">
         <v>0</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="AQ3" s="0">
-        <v>0</v>
+        <v>0.60055808306234315</v>
       </c>
       <c r="AR3" s="0">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="AT3" s="0">
-        <v>0</v>
+        <v>0.75023819002283387</v>
       </c>
       <c r="AU3" s="0">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="BM3" s="0">
-        <v>0</v>
+        <v>0.70303591557004164</v>
       </c>
       <c r="BN3" s="0">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>0</v>
+        <v>0.54875550857896571</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="R4" s="0">
-        <v>0</v>
+        <v>0.63593364192858637</v>
       </c>
       <c r="S4" s="0">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="0">
-        <v>0</v>
+        <v>0.63871500336188536</v>
       </c>
       <c r="AB4" s="0">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="AD4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="0">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="AZ4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="0">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="0">
-        <v>0</v>
+        <v>0.68891980544355635</v>
       </c>
       <c r="P5" s="0">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="S5" s="0">
-        <v>0</v>
+        <v>0.8812038023523332</v>
       </c>
       <c r="T5" s="0">
-        <v>0</v>
+        <v>0.8081945529964728</v>
       </c>
       <c r="U5" s="0">
         <v>0</v>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="0">
         <v>0</v>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="AD5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="0">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="AP5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ5" s="0">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="AW5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX5" s="0">
         <v>0</v>
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="BJ5" s="0">
-        <v>0</v>
+        <v>0.9608511588163362</v>
       </c>
       <c r="BK5" s="0">
         <v>0</v>
       </c>
       <c r="BL5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM5" s="0">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0</v>
+        <v>0.62625711015017771</v>
       </c>
       <c r="E6" s="0">
         <v>0</v>
@@ -1176,10 +1176,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0</v>
+        <v>0.67125795954864675</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="0">
-        <v>0</v>
+        <v>0.63554748137020889</v>
       </c>
       <c r="P6" s="0">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="0">
-        <v>0</v>
+        <v>0.94550258220418493</v>
       </c>
       <c r="V6" s="0">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="0">
         <v>0</v>
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="0">
-        <v>0</v>
+        <v>0.79216742148820452</v>
       </c>
       <c r="Q7" s="0">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="AD7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="0">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="0">
-        <v>0</v>
+        <v>0.86451821944838692</v>
       </c>
       <c r="AK7" s="0">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0</v>
+        <v>0.57254017131095303</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="0">
-        <v>0</v>
+        <v>0.78633029028066437</v>
       </c>
       <c r="M8" s="0">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="0">
         <v>0</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="AT8" s="0">
-        <v>0</v>
+        <v>0.93944912814751014</v>
       </c>
       <c r="AU8" s="0">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="AW8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX8" s="0">
         <v>0</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="BA8" s="0">
-        <v>0</v>
+        <v>0.84607568586839565</v>
       </c>
       <c r="BB8" s="0">
         <v>0</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -1833,13 +1833,13 @@
         <v>0</v>
       </c>
       <c r="T9" s="0">
-        <v>0</v>
+        <v>0.87102237142240257</v>
       </c>
       <c r="U9" s="0">
         <v>0</v>
       </c>
       <c r="V9" s="0">
-        <v>0</v>
+        <v>0.86060891295195674</v>
       </c>
       <c r="W9" s="0">
         <v>0</v>
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="AP9" s="0">
-        <v>0</v>
+        <v>0.63805842368432986</v>
       </c>
       <c r="AQ9" s="0">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="BD9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE9" s="0">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="BN9" s="0">
-        <v>0</v>
+        <v>0.97478409071597116</v>
       </c>
       <c r="BO9" s="0">
         <v>0</v>
@@ -2012,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>0</v>
+        <v>0.52410213804279682</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="0">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="AR10" s="0">
-        <v>0</v>
+        <v>0.98706228167311627</v>
       </c>
       <c r="AS10" s="0">
         <v>0</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="AV10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW10" s="0">
-        <v>0</v>
+        <v>0.66323817205557956</v>
       </c>
       <c r="AX10" s="0">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="BL10" s="0">
-        <v>0</v>
+        <v>0.90981985770480844</v>
       </c>
       <c r="BM10" s="0">
         <v>0</v>
@@ -2215,13 +2215,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="0">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="0">
-        <v>0</v>
+        <v>0.73786341252292575</v>
       </c>
       <c r="U11" s="0">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="0">
-        <v>0</v>
+        <v>0.60778847985184736</v>
       </c>
       <c r="X11" s="0">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="0">
         <v>0</v>
       </c>
       <c r="AL11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="0">
         <v>0</v>
@@ -2344,13 +2344,13 @@
         <v>0</v>
       </c>
       <c r="BA11" s="0">
-        <v>0</v>
+        <v>0.57287977543890156</v>
       </c>
       <c r="BB11" s="0">
         <v>0</v>
       </c>
       <c r="BC11" s="0">
-        <v>0</v>
+        <v>0.8792376391997343</v>
       </c>
       <c r="BD11" s="0">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="BH11" s="0">
-        <v>0</v>
+        <v>0.58420733725686458</v>
       </c>
       <c r="BI11" s="0">
         <v>0</v>
@@ -2415,16 +2415,16 @@
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>0</v>
+        <v>0.58625534491064402</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0</v>
+        <v>0.7804974477554345</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
@@ -2496,13 +2496,13 @@
         <v>0</v>
       </c>
       <c r="AI12" s="0">
-        <v>0</v>
+        <v>0.92034973780310958</v>
       </c>
       <c r="AJ12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="0">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>0</v>
+        <v>0.55884980630631886</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="AP13" s="0">
-        <v>0</v>
+        <v>0.74590316009069646</v>
       </c>
       <c r="AQ13" s="0">
         <v>0</v>
@@ -2744,10 +2744,10 @@
         <v>0</v>
       </c>
       <c r="AW13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX13" s="0">
-        <v>0</v>
+        <v>0.76737964533370595</v>
       </c>
       <c r="AY13" s="0">
         <v>0</v>
@@ -2765,16 +2765,16 @@
         <v>0</v>
       </c>
       <c r="BD13" s="0">
-        <v>0</v>
+        <v>0.73380930213051587</v>
       </c>
       <c r="BE13" s="0">
         <v>0</v>
       </c>
       <c r="BF13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH13" s="0">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="BO13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP13" s="0">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="0">
-        <v>0</v>
+        <v>0.70554012816253175</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="0">
         <v>0</v>
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="0">
         <v>0</v>
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="AG14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH14" s="0">
         <v>0</v>
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="AM14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN14" s="0">
         <v>0</v>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="AS14" s="0">
-        <v>0</v>
+        <v>0.68425908034559924</v>
       </c>
       <c r="AT14" s="0">
         <v>0</v>
@@ -2968,10 +2968,10 @@
         <v>0</v>
       </c>
       <c r="BC14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="0">
-        <v>0</v>
+        <v>0.99897986133339867</v>
       </c>
       <c r="BE14" s="0">
         <v>0</v>
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="BJ14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK14" s="0">
         <v>0</v>
@@ -3024,10 +3024,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="0">
-        <v>0</v>
+        <v>0.79790238709322847</v>
       </c>
       <c r="F15" s="0">
-        <v>0</v>
+        <v>0.56452108253539368</v>
       </c>
       <c r="G15" s="0">
         <v>0</v>
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="0">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0</v>
+        <v>0.81810341218615235</v>
       </c>
       <c r="N15" s="0">
         <v>0</v>
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="0">
-        <v>0</v>
+        <v>0.96442288401593979</v>
       </c>
       <c r="S15" s="0">
         <v>0</v>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" s="0">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="0">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="AO15" s="0">
-        <v>0</v>
+        <v>0.58646195375770538</v>
       </c>
       <c r="AP15" s="0">
         <v>0</v>
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="AR15" s="0">
-        <v>1</v>
+        <v>0.94425092197857163</v>
       </c>
       <c r="AS15" s="0">
         <v>0</v>
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="AZ15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA15" s="0">
         <v>0</v>
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="0">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="0">
-        <v>0</v>
+        <v>0.55026396163553926</v>
       </c>
       <c r="H16" s="0">
         <v>0</v>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>0</v>
+        <v>0.68020337735492697</v>
       </c>
       <c r="O16" s="0">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="AD16" s="0">
-        <v>0</v>
+        <v>0.54931013792852545</v>
       </c>
       <c r="AE16" s="0">
         <v>0</v>
@@ -3359,19 +3359,19 @@
         <v>0</v>
       </c>
       <c r="AV16" s="0">
-        <v>0</v>
+        <v>0.66654426904787234</v>
       </c>
       <c r="AW16" s="0">
         <v>0</v>
       </c>
       <c r="AX16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="0">
         <v>0</v>
       </c>
       <c r="AZ16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA16" s="0">
         <v>0</v>
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="BP16" s="0">
-        <v>0</v>
+        <v>0.52946675291872314</v>
       </c>
     </row>
     <row r="17">
@@ -3478,16 +3478,16 @@
         <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
       </c>
       <c r="U17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" s="0">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="AG17" s="0">
-        <v>0</v>
+        <v>0.92464007425748651</v>
       </c>
       <c r="AH17" s="0">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="AW17" s="0">
-        <v>0</v>
+        <v>0.69380713165230845</v>
       </c>
       <c r="AX17" s="0">
-        <v>0</v>
+        <v>0.56991538857212509</v>
       </c>
       <c r="AY17" s="0">
         <v>0</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="BC17" s="0">
-        <v>0</v>
+        <v>0.56744657074896976</v>
       </c>
       <c r="BD17" s="0">
         <v>0</v>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="0">
-        <v>0</v>
+        <v>0.93814534976730712</v>
       </c>
       <c r="E18" s="0">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="0">
-        <v>0</v>
+        <v>0.55969329735524398</v>
       </c>
       <c r="P18" s="0">
         <v>0</v>
@@ -3693,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="V18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" s="0">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Z18" s="0">
-        <v>0</v>
+        <v>0.71921743292993034</v>
       </c>
       <c r="AA18" s="0">
         <v>0</v>
@@ -3741,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="AL18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="0">
         <v>0</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="BN18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO18" s="0">
         <v>0</v>
@@ -3848,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="0">
-        <v>0</v>
+        <v>0.67141864461758571</v>
       </c>
       <c r="F19" s="0">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="0">
         <v>0</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="0">
         <v>0</v>
@@ -3935,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="AH19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI19" s="0">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="BC19" s="0">
-        <v>0</v>
+        <v>0.87762460635670947</v>
       </c>
       <c r="BD19" s="0">
         <v>0</v>
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="0">
-        <v>0</v>
+        <v>0.80620377926405296</v>
       </c>
       <c r="F20" s="0">
         <v>0</v>
@@ -4066,13 +4066,13 @@
         <v>0</v>
       </c>
       <c r="I20" s="0">
-        <v>0</v>
+        <v>0.94887493783895138</v>
       </c>
       <c r="J20" s="0">
         <v>0</v>
       </c>
       <c r="K20" s="0">
-        <v>0</v>
+        <v>0.69759142428762444</v>
       </c>
       <c r="L20" s="0">
         <v>0</v>
@@ -4081,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="0">
         <v>0</v>
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4177,10 +4177,10 @@
         <v>0</v>
       </c>
       <c r="AT20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="0">
-        <v>0</v>
+        <v>0.6829617407261368</v>
       </c>
       <c r="AV20" s="0">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="0">
-        <v>0</v>
+        <v>0.77522282708759882</v>
       </c>
       <c r="C21" s="0">
         <v>0</v>
@@ -4263,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="0">
-        <v>0</v>
+        <v>0.84451204031252891</v>
       </c>
       <c r="G21" s="0">
         <v>0</v>
@@ -4290,13 +4290,13 @@
         <v>0</v>
       </c>
       <c r="O21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" s="0">
         <v>0</v>
       </c>
       <c r="Q21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="0">
         <v>0</v>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>0</v>
+        <v>0.78143366014060045</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4338,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="AE21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21" s="0">
         <v>0</v>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="AI21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="0">
         <v>0</v>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="0">
-        <v>0</v>
+        <v>0.9184915094031989</v>
       </c>
       <c r="J22" s="0">
         <v>0</v>
@@ -4502,10 +4502,10 @@
         <v>0</v>
       </c>
       <c r="Q22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" s="0">
         <v>0</v>
@@ -4538,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="0">
-        <v>0</v>
+        <v>0.93246506051904876</v>
       </c>
       <c r="AD22" s="0">
         <v>0</v>
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="AI22" s="0">
-        <v>0</v>
+        <v>0.78698267753933293</v>
       </c>
       <c r="AJ22" s="0">
         <v>0</v>
@@ -4565,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="AL22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="0">
         <v>0</v>
@@ -4637,13 +4637,13 @@
         <v>0</v>
       </c>
       <c r="BJ22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK22" s="0">
         <v>0</v>
       </c>
       <c r="BL22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM22" s="0">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="0">
-        <v>0</v>
+        <v>0.8584548301996503</v>
       </c>
       <c r="L23" s="0">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>0</v>
+        <v>0.56347980968162037</v>
       </c>
       <c r="V23" s="0">
         <v>0</v>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0</v>
+        <v>0.96792828592148794</v>
       </c>
       <c r="Y23" s="0">
         <v>0</v>
@@ -4786,13 +4786,13 @@
         <v>0</v>
       </c>
       <c r="AQ23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR23" s="0">
         <v>0</v>
       </c>
       <c r="AS23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="0">
         <v>0</v>
@@ -4932,19 +4932,19 @@
         <v>0</v>
       </c>
       <c r="W24" s="0">
-        <v>0</v>
+        <v>0.69504440351374241</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0</v>
+        <v>0.75823588238105089</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="0">
-        <v>0</v>
+        <v>0.92825469109022773</v>
       </c>
       <c r="AB24" s="0">
         <v>0</v>
@@ -4956,10 +4956,10 @@
         <v>0</v>
       </c>
       <c r="AE24" s="0">
-        <v>0</v>
+        <v>0.99316351686560533</v>
       </c>
       <c r="AF24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="0">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="AU24" s="0">
-        <v>0</v>
+        <v>0.78335519807761533</v>
       </c>
       <c r="AV24" s="0">
         <v>0</v>
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="BC24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="0">
         <v>0</v>
@@ -5037,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="BF24" s="0">
-        <v>0</v>
+        <v>0.99382643351201017</v>
       </c>
       <c r="BG24" s="0">
         <v>0</v>
@@ -5141,13 +5141,13 @@
         <v>0</v>
       </c>
       <c r="X25" s="0">
-        <v>0</v>
+        <v>0.57867676845681482</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>0</v>
+        <v>0.54246256760289968</v>
       </c>
       <c r="AA25" s="0">
         <v>0</v>
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="AT25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU25" s="0">
         <v>0</v>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="AW25" s="0">
-        <v>0</v>
+        <v>0.83700566637854901</v>
       </c>
       <c r="AX25" s="0">
         <v>0</v>
@@ -5255,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="BJ25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK25" s="0">
         <v>0</v>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="BN25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO25" s="0">
         <v>0</v>
@@ -5293,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="0">
         <v>0</v>
@@ -5329,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="R26" s="0">
-        <v>0</v>
+        <v>0.60165930225527986</v>
       </c>
       <c r="S26" s="0">
         <v>0</v>
@@ -5347,10 +5347,10 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="0">
-        <v>0</v>
+        <v>0.58352569973355894</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0.98907036341755183</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5386,10 +5386,10 @@
         <v>0</v>
       </c>
       <c r="AK26" s="0">
-        <v>0</v>
+        <v>0.51185382044646799</v>
       </c>
       <c r="AL26" s="0">
-        <v>0</v>
+        <v>0.79875289663389248</v>
       </c>
       <c r="AM26" s="0">
         <v>0</v>
@@ -5458,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="BI26" s="0">
-        <v>0</v>
+        <v>0.54551134284837288</v>
       </c>
       <c r="BJ26" s="0">
         <v>0</v>
@@ -5493,10 +5493,10 @@
         <v>0</v>
       </c>
       <c r="D27" s="0">
-        <v>0</v>
+        <v>0.56070399292525563</v>
       </c>
       <c r="E27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="0">
         <v>0</v>
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="0">
         <v>0</v>
@@ -5553,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="X27" s="0">
-        <v>0</v>
+        <v>0.99064502157643752</v>
       </c>
       <c r="Y27" s="0">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5583,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="AH27" s="0">
-        <v>0</v>
+        <v>0.55010995176767707</v>
       </c>
       <c r="AI27" s="0">
         <v>0</v>
@@ -5601,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="AN27" s="0">
-        <v>0</v>
+        <v>0.51562705407980303</v>
       </c>
       <c r="AO27" s="0">
         <v>0</v>
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="AS27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT27" s="0">
         <v>0</v>
@@ -5658,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="BG27" s="0">
-        <v>0</v>
+        <v>0.63263684208704096</v>
       </c>
       <c r="BH27" s="0">
         <v>0</v>
@@ -5682,7 +5682,7 @@
         <v>0</v>
       </c>
       <c r="BO27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP27" s="0">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0.83727422327246193</v>
       </c>
       <c r="AA28" s="0">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="AG28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH28" s="0">
         <v>0</v>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="AP28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ28" s="0">
         <v>0</v>
@@ -5876,13 +5876,13 @@
         <v>0</v>
       </c>
       <c r="BK28" s="0">
-        <v>0</v>
+        <v>0.51053692147924834</v>
       </c>
       <c r="BL28" s="0">
         <v>0</v>
       </c>
       <c r="BM28" s="0">
-        <v>0</v>
+        <v>0.82973514069287901</v>
       </c>
       <c r="BN28" s="0">
         <v>0</v>
@@ -5959,7 +5959,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="0">
-        <v>0</v>
+        <v>0.92357697567003916</v>
       </c>
       <c r="W29" s="0">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="0">
         <v>0</v>
@@ -6001,7 +6001,7 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="0">
-        <v>0</v>
+        <v>0.92230778853341566</v>
       </c>
       <c r="AK29" s="0">
         <v>0</v>
@@ -6022,13 +6022,13 @@
         <v>0</v>
       </c>
       <c r="AQ29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR29" s="0">
         <v>0</v>
       </c>
       <c r="AS29" s="0">
-        <v>0</v>
+        <v>0.55299366141227679</v>
       </c>
       <c r="AT29" s="0">
         <v>0</v>
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="AZ29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA29" s="0">
         <v>0</v>
@@ -6076,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="BI29" s="0">
-        <v>0</v>
+        <v>0.80061458652584994</v>
       </c>
       <c r="BJ29" s="0">
         <v>0</v>
@@ -6085,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="BL29" s="0">
-        <v>0</v>
+        <v>0.85256331881808767</v>
       </c>
       <c r="BM29" s="0">
         <v>0</v>
@@ -6108,19 +6108,19 @@
         <v>0</v>
       </c>
       <c r="C30" s="0">
-        <v>0</v>
+        <v>0.56039440744869895</v>
       </c>
       <c r="D30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="0">
         <v>0</v>
       </c>
       <c r="G30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="0">
         <v>0</v>
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="0">
-        <v>0</v>
+        <v>0.92125401607148005</v>
       </c>
       <c r="Q30" s="0">
         <v>0</v>
@@ -6183,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="0">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="0">
         <v>0</v>
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="AN30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO30" s="0">
         <v>0</v>
@@ -6249,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="AX30" s="0">
-        <v>0</v>
+        <v>0.82456234005790119</v>
       </c>
       <c r="AY30" s="0">
         <v>0</v>
@@ -6285,7 +6285,7 @@
         <v>0</v>
       </c>
       <c r="BJ30" s="0">
-        <v>0</v>
+        <v>0.52129262946667509</v>
       </c>
       <c r="BK30" s="0">
         <v>0</v>
@@ -6308,7 +6308,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31" s="0">
         <v>0</v>
@@ -6368,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="U31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31" s="0">
         <v>0</v>
@@ -6377,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="0">
-        <v>0</v>
+        <v>0.8255070253070842</v>
       </c>
       <c r="Y31" s="0">
         <v>0</v>
@@ -6395,16 +6395,16 @@
         <v>0</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>0</v>
+        <v>0.61020545865997311</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="AL31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="0">
         <v>0</v>
@@ -6437,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="AR31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS31" s="0">
         <v>0</v>
@@ -6473,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="BD31" s="0">
-        <v>0</v>
+        <v>0.870599683469647</v>
       </c>
       <c r="BE31" s="0">
         <v>0</v>
@@ -6520,7 +6520,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="0">
         <v>0</v>
@@ -6535,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="0">
         <v>0</v>
@@ -6583,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="0">
         <v>0</v>
@@ -6604,16 +6604,16 @@
         <v>0</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0</v>
+        <v>0.9714749127929011</v>
       </c>
       <c r="AH32" s="0">
-        <v>0</v>
+        <v>0.61105292294201974</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6628,16 +6628,16 @@
         <v>0</v>
       </c>
       <c r="AM32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN32" s="0">
         <v>0</v>
       </c>
       <c r="AO32" s="0">
-        <v>0</v>
+        <v>0.85421023595547385</v>
       </c>
       <c r="AP32" s="0">
-        <v>0</v>
+        <v>0.85383413412198728</v>
       </c>
       <c r="AQ32" s="0">
         <v>0</v>
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="AX32" s="0">
-        <v>0</v>
+        <v>0.76323498931429345</v>
       </c>
       <c r="AY32" s="0">
         <v>0</v>
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="BH32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI32" s="0">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="BP32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -6759,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="0">
         <v>0</v>
@@ -6768,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="0">
-        <v>0</v>
+        <v>0.56814683649960562</v>
       </c>
       <c r="R33" s="0">
         <v>0</v>
@@ -6801,7 +6801,7 @@
         <v>0</v>
       </c>
       <c r="AB33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="0">
         <v>0</v>
@@ -6810,16 +6810,16 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0</v>
+        <v>0.62478521645952989</v>
       </c>
       <c r="AF33" s="0">
-        <v>0</v>
+        <v>0.6086926055859716</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="0">
         <v>0</v>
@@ -6840,13 +6840,13 @@
         <v>0</v>
       </c>
       <c r="AO33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP33" s="0">
         <v>0</v>
       </c>
       <c r="AQ33" s="0">
-        <v>0</v>
+        <v>0.62217877659435206</v>
       </c>
       <c r="AR33" s="0">
         <v>0</v>
@@ -6897,10 +6897,10 @@
         <v>0</v>
       </c>
       <c r="BH33" s="0">
-        <v>0</v>
+        <v>0.95584679951220786</v>
       </c>
       <c r="BI33" s="0">
-        <v>0</v>
+        <v>0.90015189268249918</v>
       </c>
       <c r="BJ33" s="0">
         <v>0</v>
@@ -6912,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="BM33" s="0">
-        <v>0</v>
+        <v>0.763769508179867</v>
       </c>
       <c r="BN33" s="0">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="S34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34" s="0">
         <v>0</v>
@@ -7004,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="AA34" s="0">
-        <v>0</v>
+        <v>0.90030566683102342</v>
       </c>
       <c r="AB34" s="0">
         <v>0</v>
@@ -7019,10 +7019,10 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0</v>
+        <v>0.86925871670030674</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
@@ -7031,13 +7031,13 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0</v>
+        <v>0.80473440953531494</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
       </c>
       <c r="AL34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="0">
         <v>0</v>
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="AO34" s="0">
-        <v>0</v>
+        <v>0.84578853696869905</v>
       </c>
       <c r="AP34" s="0">
         <v>0</v>
@@ -7067,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="AV34" s="0">
-        <v>0</v>
+        <v>0.69601805820324381</v>
       </c>
       <c r="AW34" s="0">
         <v>0</v>
@@ -7165,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="0">
-        <v>0</v>
+        <v>0.63266211380574777</v>
       </c>
       <c r="M35" s="0">
         <v>0</v>
@@ -7192,10 +7192,10 @@
         <v>0</v>
       </c>
       <c r="U35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35" s="0">
-        <v>0</v>
+        <v>0.67830723058395881</v>
       </c>
       <c r="W35" s="0">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>0</v>
+        <v>0.94490844807819974</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="BE35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF35" s="0">
         <v>0</v>
@@ -7324,7 +7324,7 @@
         <v>0</v>
       </c>
       <c r="BM35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN35" s="0">
         <v>0</v>
@@ -7356,7 +7356,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="0">
-        <v>0</v>
+        <v>0.51246736737578436</v>
       </c>
       <c r="H36" s="0">
         <v>0</v>
@@ -7368,10 +7368,10 @@
         <v>0</v>
       </c>
       <c r="K36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" s="0">
         <v>0</v>
@@ -7380,7 +7380,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" s="0">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="0">
-        <v>0</v>
+        <v>0.74947195583728909</v>
       </c>
       <c r="AD36" s="0">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0</v>
+        <v>0.85708912346301913</v>
       </c>
       <c r="AI36" s="0">
         <v>0</v>
@@ -7449,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="AL36" s="0">
-        <v>0</v>
+        <v>0.56597832167667672</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7491,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="AZ36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA36" s="0">
         <v>0</v>
@@ -7503,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="BD36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE36" s="0">
         <v>0</v>
@@ -7518,7 +7518,7 @@
         <v>0</v>
       </c>
       <c r="BI36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ36" s="0">
         <v>0</v>
@@ -7577,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" s="0">
         <v>0</v>
@@ -7619,7 +7619,7 @@
         <v>0</v>
       </c>
       <c r="Z37" s="0">
-        <v>0</v>
+        <v>0.53219694260678541</v>
       </c>
       <c r="AA37" s="0">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0</v>
+        <v>0.51894451112410933</v>
       </c>
       <c r="AJ37" s="0">
         <v>0</v>
@@ -7658,10 +7658,10 @@
         <v>0</v>
       </c>
       <c r="AM37" s="0">
-        <v>0</v>
+        <v>0.66823420128091349</v>
       </c>
       <c r="AN37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO37" s="0">
         <v>0</v>
@@ -7733,7 +7733,7 @@
         <v>0</v>
       </c>
       <c r="BL37" s="0">
-        <v>0</v>
+        <v>0.66917410736967886</v>
       </c>
       <c r="BM37" s="0">
         <v>0</v>
@@ -7780,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="0">
         <v>0</v>
@@ -7801,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="R38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S38" s="0">
         <v>0</v>
@@ -7813,7 +7813,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38" s="0">
         <v>0</v>
@@ -7825,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="Z38" s="0">
-        <v>0</v>
+        <v>0.86093327095808858</v>
       </c>
       <c r="AA38" s="0">
         <v>0</v>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="AE38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF38" s="0">
         <v>0</v>
@@ -7849,13 +7849,13 @@
         <v>0</v>
       </c>
       <c r="AH38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI38" s="0">
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0</v>
+        <v>0.95566153528034614</v>
       </c>
       <c r="AK38" s="0">
         <v>0</v>
@@ -7873,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="AP38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ38" s="0">
         <v>0</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="AV38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW38" s="0">
         <v>0</v>
@@ -7900,13 +7900,13 @@
         <v>0</v>
       </c>
       <c r="AY38" s="0">
-        <v>0</v>
+        <v>0.60703341342462203</v>
       </c>
       <c r="AZ38" s="0">
         <v>0</v>
       </c>
       <c r="BA38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB38" s="0">
         <v>0</v>
@@ -7915,7 +7915,7 @@
         <v>0</v>
       </c>
       <c r="BD38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE38" s="0">
         <v>0</v>
@@ -7930,7 +7930,7 @@
         <v>0</v>
       </c>
       <c r="BI38" s="0">
-        <v>0</v>
+        <v>0.94099577015708324</v>
       </c>
       <c r="BJ38" s="0">
         <v>0</v>
@@ -7956,7 +7956,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0</v>
+        <v>0.57979577696235929</v>
       </c>
       <c r="B39" s="0">
         <v>0</v>
@@ -7995,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="N39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" s="0">
         <v>0</v>
@@ -8049,7 +8049,7 @@
         <v>0</v>
       </c>
       <c r="AF39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG39" s="0">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0</v>
+        <v>0.96039578962858074</v>
       </c>
       <c r="AL39" s="0">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="AO39" s="0">
-        <v>0</v>
+        <v>0.65940749299748769</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8112,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="BA39" s="0">
-        <v>1</v>
+        <v>0.55307148013188656</v>
       </c>
       <c r="BB39" s="0">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="BJ39" s="0">
-        <v>0</v>
+        <v>0.86836029329988595</v>
       </c>
       <c r="BK39" s="0">
         <v>0</v>
@@ -8168,7 +8168,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="0">
-        <v>0</v>
+        <v>0.86675297542639285</v>
       </c>
       <c r="D40" s="0">
         <v>0</v>
@@ -8240,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="AA40" s="0">
-        <v>0</v>
+        <v>0.56400163972864048</v>
       </c>
       <c r="AB40" s="0">
         <v>0</v>
@@ -8249,7 +8249,7 @@
         <v>0</v>
       </c>
       <c r="AD40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE40" s="0">
         <v>0</v>
@@ -8270,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="AK40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL40" s="0">
         <v>0</v>
@@ -8282,13 +8282,13 @@
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP40" s="0">
         <v>0</v>
       </c>
       <c r="AQ40" s="0">
-        <v>0</v>
+        <v>0.59141055750071037</v>
       </c>
       <c r="AR40" s="0">
         <v>0</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="BE40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF40" s="0">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="0">
-        <v>0</v>
+        <v>0.93093343431451214</v>
       </c>
       <c r="P41" s="0">
         <v>0</v>
@@ -8461,13 +8461,13 @@
         <v>0</v>
       </c>
       <c r="AF41" s="0">
-        <v>0</v>
+        <v>0.80061843944711275</v>
       </c>
       <c r="AG41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH41" s="0">
-        <v>0</v>
+        <v>0.96745004343059193</v>
       </c>
       <c r="AI41" s="0">
         <v>0</v>
@@ -8482,10 +8482,10 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0</v>
+        <v>0.77924633052378356</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0</v>
+        <v>0.81616974204339821</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="AT41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU41" s="0">
         <v>0</v>
@@ -8586,7 +8586,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="0">
         <v>0</v>
@@ -8598,7 +8598,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="0">
-        <v>0</v>
+        <v>0.96937334373060569</v>
       </c>
       <c r="J42" s="0">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="0">
-        <v>0</v>
+        <v>0.85271560276837433</v>
       </c>
       <c r="N42" s="0">
         <v>0</v>
@@ -8655,7 +8655,7 @@
         <v>0</v>
       </c>
       <c r="AB42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC42" s="0">
         <v>0</v>
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="AF42" s="0">
-        <v>0</v>
+        <v>0.5071200735307978</v>
       </c>
       <c r="AG42" s="0">
         <v>0</v>
@@ -8685,7 +8685,7 @@
         <v>0</v>
       </c>
       <c r="AL42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42" s="0">
         <v>0</v>
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="BC42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD42" s="0">
         <v>0</v>
@@ -8780,13 +8780,13 @@
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43" s="0">
         <v>0</v>
       </c>
       <c r="C43" s="0">
-        <v>0</v>
+        <v>0.51500580572806487</v>
       </c>
       <c r="D43" s="0">
         <v>0</v>
@@ -8846,7 +8846,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X43" s="0">
         <v>0</v>
@@ -8864,7 +8864,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD43" s="0">
         <v>0</v>
@@ -8876,7 +8876,7 @@
         <v>0</v>
       </c>
       <c r="AG43" s="0">
-        <v>0</v>
+        <v>0.5928718421401673</v>
       </c>
       <c r="AH43" s="0">
         <v>0</v>
@@ -8897,10 +8897,10 @@
         <v>0</v>
       </c>
       <c r="AN43" s="0">
-        <v>0</v>
+        <v>0.60035967194625783</v>
       </c>
       <c r="AO43" s="0">
-        <v>0</v>
+        <v>0.53340715791859505</v>
       </c>
       <c r="AP43" s="0">
         <v>0</v>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS43" s="0">
         <v>0</v>
@@ -8986,7 +8986,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0</v>
+        <v>0.92957696593215666</v>
       </c>
       <c r="B44" s="0">
         <v>0</v>
@@ -9013,7 +9013,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="0">
-        <v>0</v>
+        <v>0.63030919557223752</v>
       </c>
       <c r="K44" s="0">
         <v>0</v>
@@ -9028,7 +9028,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="0">
-        <v>1</v>
+        <v>0.56847720339947605</v>
       </c>
       <c r="P44" s="0">
         <v>0</v>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="AE44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF44" s="0">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
@@ -9121,10 +9121,10 @@
         <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>0</v>
+        <v>0.88925880900406895</v>
       </c>
       <c r="AU44" s="0">
-        <v>0</v>
+        <v>0.99906141342462162</v>
       </c>
       <c r="AV44" s="0">
         <v>0</v>
@@ -9142,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="BA44" s="0">
-        <v>0</v>
+        <v>0.60938028057048377</v>
       </c>
       <c r="BB44" s="0">
         <v>0</v>
@@ -9231,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="0">
-        <v>0</v>
+        <v>0.55263183385156434</v>
       </c>
       <c r="O45" s="0">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="W45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X45" s="0">
         <v>0</v>
@@ -9270,13 +9270,13 @@
         <v>0</v>
       </c>
       <c r="AA45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="0">
         <v>0</v>
       </c>
       <c r="AC45" s="0">
-        <v>0</v>
+        <v>0.57713401774223838</v>
       </c>
       <c r="AD45" s="0">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>0</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9351,7 +9351,7 @@
         <v>0</v>
       </c>
       <c r="BB45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC45" s="0">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="C46" s="0">
-        <v>0</v>
+        <v>0.98803741519232324</v>
       </c>
       <c r="D46" s="0">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="0">
-        <v>0</v>
+        <v>0.6493159783745821</v>
       </c>
       <c r="I46" s="0">
         <v>0</v>
@@ -9455,7 +9455,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U46" s="0">
         <v>0</v>
@@ -9470,7 +9470,7 @@
         <v>0</v>
       </c>
       <c r="Y46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="0">
         <v>0</v>
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="AO46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP46" s="0">
         <v>0</v>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0</v>
+        <v>0.5826279129040951</v>
       </c>
       <c r="AS46" s="0">
         <v>0</v>
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV46" s="0">
         <v>0</v>
@@ -9557,7 +9557,7 @@
         <v>0</v>
       </c>
       <c r="BB46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC46" s="0">
         <v>0</v>
@@ -9569,7 +9569,7 @@
         <v>0</v>
       </c>
       <c r="BF46" s="0">
-        <v>0</v>
+        <v>0.58957314743178069</v>
       </c>
       <c r="BG46" s="0">
         <v>0</v>
@@ -9587,7 +9587,7 @@
         <v>0</v>
       </c>
       <c r="BL46" s="0">
-        <v>0</v>
+        <v>0.79132514166456069</v>
       </c>
       <c r="BM46" s="0">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="T47" s="0">
-        <v>0</v>
+        <v>0.54691338925828004</v>
       </c>
       <c r="U47" s="0">
         <v>0</v>
@@ -9673,7 +9673,7 @@
         <v>0</v>
       </c>
       <c r="X47" s="0">
-        <v>0</v>
+        <v>0.95204052607950984</v>
       </c>
       <c r="Y47" s="0">
         <v>0</v>
@@ -9733,28 +9733,28 @@
         <v>0</v>
       </c>
       <c r="AR47" s="0">
-        <v>0</v>
+        <v>0.5445166294174234</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW47" s="0">
         <v>0</v>
       </c>
       <c r="AX47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ47" s="0">
         <v>0</v>
@@ -9772,7 +9772,7 @@
         <v>0</v>
       </c>
       <c r="BE47" s="0">
-        <v>0</v>
+        <v>0.7857651722357093</v>
       </c>
       <c r="BF47" s="0">
         <v>0</v>
@@ -9802,7 +9802,7 @@
         <v>0</v>
       </c>
       <c r="BO47" s="0">
-        <v>0</v>
+        <v>0.73101047537087838</v>
       </c>
       <c r="BP47" s="0">
         <v>0</v>
@@ -9837,7 +9837,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="0">
         <v>0</v>
@@ -9855,7 +9855,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="0">
-        <v>0</v>
+        <v>0.93464108112162347</v>
       </c>
       <c r="Q48" s="0">
         <v>0</v>
@@ -9909,7 +9909,7 @@
         <v>0</v>
       </c>
       <c r="AH48" s="0">
-        <v>0</v>
+        <v>0.79893800583716346</v>
       </c>
       <c r="AI48" s="0">
         <v>0</v>
@@ -9921,7 +9921,7 @@
         <v>0</v>
       </c>
       <c r="AL48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48" s="0">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
@@ -9957,10 +9957,10 @@
         <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="0">
-        <v>0</v>
+        <v>0.63275381538427156</v>
       </c>
       <c r="AZ48" s="0">
         <v>0</v>
@@ -9987,7 +9987,7 @@
         <v>0</v>
       </c>
       <c r="BH48" s="0">
-        <v>0</v>
+        <v>0.89054247189628732</v>
       </c>
       <c r="BI48" s="0">
         <v>0</v>
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="0">
         <v>0</v>
@@ -10037,13 +10037,13 @@
         <v>0</v>
       </c>
       <c r="H49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" s="0">
         <v>0</v>
       </c>
       <c r="J49" s="0">
-        <v>0</v>
+        <v>0.90351687061132857</v>
       </c>
       <c r="K49" s="0">
         <v>0</v>
@@ -10052,7 +10052,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49" s="0">
         <v>0</v>
@@ -10064,7 +10064,7 @@
         <v>0</v>
       </c>
       <c r="Q49" s="0">
-        <v>0</v>
+        <v>0.78665618886472899</v>
       </c>
       <c r="R49" s="0">
         <v>0</v>
@@ -10088,7 +10088,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="0">
-        <v>0</v>
+        <v>0.56586882693558593</v>
       </c>
       <c r="Z49" s="0">
         <v>0</v>
@@ -10184,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="BE49" s="0">
-        <v>0</v>
+        <v>0.74136172974538672</v>
       </c>
       <c r="BF49" s="0">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="BN49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO49" s="0">
         <v>0</v>
@@ -10258,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="0">
-        <v>0</v>
+        <v>0.99443709697710614</v>
       </c>
       <c r="N50" s="0">
         <v>0</v>
@@ -10267,10 +10267,10 @@
         <v>0</v>
       </c>
       <c r="P50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="0">
-        <v>0</v>
+        <v>0.85243278671776423</v>
       </c>
       <c r="R50" s="0">
         <v>0</v>
@@ -10309,13 +10309,13 @@
         <v>0</v>
       </c>
       <c r="AD50" s="0">
-        <v>0</v>
+        <v>0.93714150089371318</v>
       </c>
       <c r="AE50" s="0">
         <v>0</v>
       </c>
       <c r="AF50" s="0">
-        <v>0</v>
+        <v>0.5909675668714558</v>
       </c>
       <c r="AG50" s="0">
         <v>0</v>
@@ -10360,10 +10360,10 @@
         <v>0</v>
       </c>
       <c r="AU50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW50" s="0">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ50" s="0">
         <v>0</v>
@@ -10381,7 +10381,7 @@
         <v>0</v>
       </c>
       <c r="BB50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC50" s="0">
         <v>0</v>
@@ -10396,7 +10396,7 @@
         <v>0</v>
       </c>
       <c r="BG50" s="0">
-        <v>0</v>
+        <v>0.60774881087258792</v>
       </c>
       <c r="BH50" s="0">
         <v>0</v>
@@ -10408,7 +10408,7 @@
         <v>0</v>
       </c>
       <c r="BK50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL50" s="0">
         <v>0</v>
@@ -10423,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="BP50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -10539,7 +10539,7 @@
         <v>0</v>
       </c>
       <c r="AL51" s="0">
-        <v>0</v>
+        <v>0.87711670518517171</v>
       </c>
       <c r="AM51" s="0">
         <v>0</v>
@@ -10566,16 +10566,16 @@
         <v>0</v>
       </c>
       <c r="AU51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV51" s="0">
-        <v>0</v>
+        <v>0.89318838048744531</v>
       </c>
       <c r="AW51" s="0">
         <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
@@ -10599,7 +10599,7 @@
         <v>0</v>
       </c>
       <c r="BF51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG51" s="0">
         <v>0</v>
@@ -10620,7 +10620,7 @@
         <v>0</v>
       </c>
       <c r="BM51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN51" s="0">
         <v>0</v>
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="D52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" s="0">
         <v>0</v>
@@ -10676,10 +10676,10 @@
         <v>0</v>
       </c>
       <c r="O52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="0">
         <v>0</v>
@@ -10718,7 +10718,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD52" s="0">
         <v>0</v>
@@ -10739,7 +10739,7 @@
         <v>0</v>
       </c>
       <c r="AJ52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK52" s="0">
         <v>0</v>
@@ -10790,10 +10790,10 @@
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>0</v>
+        <v>0.90125540160170925</v>
       </c>
       <c r="BB52" s="0">
-        <v>0</v>
+        <v>0.68447428745668748</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="BL52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM52" s="0">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="BO52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP52" s="0">
         <v>0</v>
@@ -10840,7 +10840,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53" s="0">
         <v>0</v>
@@ -10861,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="0">
-        <v>0</v>
+        <v>0.8181226157320387</v>
       </c>
       <c r="I53" s="0">
         <v>0</v>
@@ -10870,7 +10870,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="0">
-        <v>0</v>
+        <v>0.94364272360725843</v>
       </c>
       <c r="L53" s="0">
         <v>0</v>
@@ -10951,10 +10951,10 @@
         <v>0</v>
       </c>
       <c r="AL53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53" s="0">
-        <v>1</v>
+        <v>0.78018175717117044</v>
       </c>
       <c r="AN53" s="0">
         <v>0</v>
@@ -10969,7 +10969,7 @@
         <v>0</v>
       </c>
       <c r="AR53" s="0">
-        <v>0</v>
+        <v>0.79991365276062676</v>
       </c>
       <c r="AS53" s="0">
         <v>0</v>
@@ -10993,16 +10993,16 @@
         <v>0</v>
       </c>
       <c r="AZ53" s="0">
-        <v>0</v>
+        <v>0.63519164311089416</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0.8848658251180066</v>
       </c>
       <c r="BC53" s="0">
-        <v>0</v>
+        <v>0.99816421335729788</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11014,7 +11014,7 @@
         <v>0</v>
       </c>
       <c r="BG53" s="0">
-        <v>0</v>
+        <v>0.53773587361687225</v>
       </c>
       <c r="BH53" s="0">
         <v>0</v>
@@ -11041,7 +11041,7 @@
         <v>0</v>
       </c>
       <c r="BP53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -11178,10 +11178,10 @@
         <v>0</v>
       </c>
       <c r="AS54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU54" s="0">
         <v>0</v>
@@ -11193,16 +11193,16 @@
         <v>0</v>
       </c>
       <c r="AX54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY54" s="0">
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>0</v>
+        <v>0.57189331971130308</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0.63163442380875812</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11211,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="BM54" s="0">
-        <v>1</v>
+        <v>0.86613068728913323</v>
       </c>
       <c r="BN54" s="0">
         <v>0</v>
@@ -11282,7 +11282,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="0">
-        <v>0</v>
+        <v>0.81442567649968822</v>
       </c>
       <c r="L55" s="0">
         <v>0</v>
@@ -11291,7 +11291,7 @@
         <v>0</v>
       </c>
       <c r="N55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55" s="0">
         <v>0</v>
@@ -11300,13 +11300,13 @@
         <v>0</v>
       </c>
       <c r="Q55" s="0">
-        <v>0</v>
+        <v>0.72696103351835983</v>
       </c>
       <c r="R55" s="0">
         <v>0</v>
       </c>
       <c r="S55" s="0">
-        <v>0</v>
+        <v>0.53468429048563382</v>
       </c>
       <c r="T55" s="0">
         <v>0</v>
@@ -11321,7 +11321,7 @@
         <v>0</v>
       </c>
       <c r="X55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y55" s="0">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="AP55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ55" s="0">
         <v>0</v>
@@ -11408,7 +11408,7 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>0</v>
+        <v>0.95999310743914557</v>
       </c>
       <c r="BB55" s="0">
         <v>0</v>
@@ -11417,10 +11417,10 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0.59143694828679627</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11438,7 +11438,7 @@
         <v>0</v>
       </c>
       <c r="BK55" s="0">
-        <v>0</v>
+        <v>0.9290631172168804</v>
       </c>
       <c r="BL55" s="0">
         <v>0</v>
@@ -11461,7 +11461,7 @@
         <v>0</v>
       </c>
       <c r="B56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" s="0">
         <v>0</v>
@@ -11482,7 +11482,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" s="0">
         <v>0</v>
@@ -11494,10 +11494,10 @@
         <v>0</v>
       </c>
       <c r="M56" s="0">
-        <v>0</v>
+        <v>0.7170773757431177</v>
       </c>
       <c r="N56" s="0">
-        <v>0</v>
+        <v>0.62894935110298822</v>
       </c>
       <c r="O56" s="0">
         <v>0</v>
@@ -11548,7 +11548,7 @@
         <v>0</v>
       </c>
       <c r="AE56" s="0">
-        <v>0</v>
+        <v>0.89542314960633562</v>
       </c>
       <c r="AF56" s="0">
         <v>0</v>
@@ -11563,13 +11563,13 @@
         <v>0</v>
       </c>
       <c r="AJ56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK56" s="0">
         <v>0</v>
       </c>
       <c r="AL56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56" s="0">
         <v>0</v>
@@ -11617,10 +11617,10 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
@@ -11656,7 +11656,7 @@
         <v>0</v>
       </c>
       <c r="BO56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP56" s="0">
         <v>0</v>
@@ -11766,7 +11766,7 @@
         <v>0</v>
       </c>
       <c r="AI57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ57" s="0">
         <v>0</v>
@@ -11781,7 +11781,7 @@
         <v>0</v>
       </c>
       <c r="AN57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO57" s="0">
         <v>0</v>
@@ -11802,13 +11802,13 @@
         <v>0</v>
       </c>
       <c r="AU57" s="0">
-        <v>0</v>
+        <v>0.77835820772837661</v>
       </c>
       <c r="AV57" s="0">
         <v>0</v>
       </c>
       <c r="AW57" s="0">
-        <v>0</v>
+        <v>0.85743041297769906</v>
       </c>
       <c r="AX57" s="0">
         <v>0</v>
@@ -11826,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0.51405995382788849</v>
       </c>
       <c r="BD57" s="0">
         <v>0</v>
@@ -11835,7 +11835,7 @@
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>0</v>
+        <v>0.73818140061930837</v>
       </c>
       <c r="BG57" s="0">
         <v>0</v>
@@ -11844,7 +11844,7 @@
         <v>0</v>
       </c>
       <c r="BI57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ57" s="0">
         <v>0</v>
@@ -11906,7 +11906,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58" s="0">
         <v>0</v>
@@ -11939,7 +11939,7 @@
         <v>0</v>
       </c>
       <c r="X58" s="0">
-        <v>0</v>
+        <v>0.55749629801115663</v>
       </c>
       <c r="Y58" s="0">
         <v>0</v>
@@ -12005,7 +12005,7 @@
         <v>0</v>
       </c>
       <c r="AT58" s="0">
-        <v>0</v>
+        <v>0.51693271011839159</v>
       </c>
       <c r="AU58" s="0">
         <v>0</v>
@@ -12020,7 +12020,7 @@
         <v>0</v>
       </c>
       <c r="AY58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ58" s="0">
         <v>0</v>
@@ -12038,7 +12038,7 @@
         <v>0</v>
       </c>
       <c r="BE58" s="0">
-        <v>0</v>
+        <v>0.72406004195600715</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
@@ -12047,7 +12047,7 @@
         <v>0</v>
       </c>
       <c r="BH58" s="0">
-        <v>0</v>
+        <v>0.72596787732512313</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12062,7 +12062,7 @@
         <v>0</v>
       </c>
       <c r="BM58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN58" s="0">
         <v>0</v>
@@ -12112,7 +12112,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59" s="0">
         <v>0</v>
@@ -12154,7 +12154,7 @@
         <v>0</v>
       </c>
       <c r="AA59" s="0">
-        <v>0</v>
+        <v>0.80549310249529693</v>
       </c>
       <c r="AB59" s="0">
         <v>0</v>
@@ -12223,7 +12223,7 @@
         <v>0</v>
       </c>
       <c r="AX59" s="0">
-        <v>0</v>
+        <v>0.69608135863357012</v>
       </c>
       <c r="AY59" s="0">
         <v>0</v>
@@ -12232,7 +12232,7 @@
         <v>0</v>
       </c>
       <c r="BA59" s="0">
-        <v>0</v>
+        <v>0.57481459062163165</v>
       </c>
       <c r="BB59" s="0">
         <v>0</v>
@@ -12265,7 +12265,7 @@
         <v>0</v>
       </c>
       <c r="BL59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM59" s="0">
         <v>0</v>
@@ -12312,7 +12312,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="0">
-        <v>0</v>
+        <v>0.61846329666006095</v>
       </c>
       <c r="L60" s="0">
         <v>0</v>
@@ -12375,10 +12375,10 @@
         <v>0</v>
       </c>
       <c r="AF60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG60" s="0">
-        <v>0</v>
+        <v>0.75092954176193238</v>
       </c>
       <c r="AH60" s="0">
         <v>0</v>
@@ -12423,7 +12423,7 @@
         <v>0</v>
       </c>
       <c r="AV60" s="0">
-        <v>0</v>
+        <v>0.74807035878123407</v>
       </c>
       <c r="AW60" s="0">
         <v>0</v>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0</v>
+        <v>0.92607688347465955</v>
       </c>
       <c r="BG60" s="0">
         <v>0</v>
@@ -12477,7 +12477,7 @@
         <v>0</v>
       </c>
       <c r="BN60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO60" s="0">
         <v>0</v>
@@ -12563,7 +12563,7 @@
         <v>0</v>
       </c>
       <c r="Z61" s="0">
-        <v>0</v>
+        <v>0.763749341733025</v>
       </c>
       <c r="AA61" s="0">
         <v>0</v>
@@ -12572,7 +12572,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="0">
-        <v>0</v>
+        <v>0.9512919262844155</v>
       </c>
       <c r="AD61" s="0">
         <v>0</v>
@@ -12584,7 +12584,7 @@
         <v>0</v>
       </c>
       <c r="AG61" s="0">
-        <v>0</v>
+        <v>0.85562657249888452</v>
       </c>
       <c r="AH61" s="0">
         <v>0</v>
@@ -12593,13 +12593,13 @@
         <v>0</v>
       </c>
       <c r="AJ61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK61" s="0">
         <v>0</v>
       </c>
       <c r="AL61" s="0">
-        <v>0</v>
+        <v>0.65868413606723775</v>
       </c>
       <c r="AM61" s="0">
         <v>0</v>
@@ -12656,7 +12656,7 @@
         <v>0</v>
       </c>
       <c r="BE61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF61" s="0">
         <v>0</v>
@@ -12671,13 +12671,13 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0</v>
+        <v>0.7026468041124716</v>
       </c>
       <c r="BK61" s="0">
         <v>0</v>
       </c>
       <c r="BL61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM61" s="0">
         <v>0</v>
@@ -12706,7 +12706,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="0">
-        <v>0</v>
+        <v>0.67940805406204574</v>
       </c>
       <c r="F62" s="0">
         <v>0</v>
@@ -12733,7 +12733,7 @@
         <v>0</v>
       </c>
       <c r="N62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O62" s="0">
         <v>0</v>
@@ -12757,7 +12757,7 @@
         <v>0</v>
       </c>
       <c r="V62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W62" s="0">
         <v>0</v>
@@ -12766,7 +12766,7 @@
         <v>0</v>
       </c>
       <c r="Y62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z62" s="0">
         <v>0</v>
@@ -12781,7 +12781,7 @@
         <v>0</v>
       </c>
       <c r="AD62" s="0">
-        <v>0</v>
+        <v>0.67918673149659148</v>
       </c>
       <c r="AE62" s="0">
         <v>0</v>
@@ -12808,7 +12808,7 @@
         <v>0</v>
       </c>
       <c r="AM62" s="0">
-        <v>0</v>
+        <v>0.89895365614754441</v>
       </c>
       <c r="AN62" s="0">
         <v>0</v>
@@ -12874,7 +12874,7 @@
         <v>0</v>
       </c>
       <c r="BI62" s="0">
-        <v>0</v>
+        <v>0.95052813902697197</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12981,7 +12981,7 @@
         <v>0</v>
       </c>
       <c r="AB63" s="0">
-        <v>0</v>
+        <v>0.74667586546891307</v>
       </c>
       <c r="AC63" s="0">
         <v>0</v>
@@ -13047,7 +13047,7 @@
         <v>0</v>
       </c>
       <c r="AX63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY63" s="0">
         <v>0</v>
@@ -13062,7 +13062,7 @@
         <v>0</v>
       </c>
       <c r="BC63" s="0">
-        <v>0</v>
+        <v>0.66145893584994297</v>
       </c>
       <c r="BD63" s="0">
         <v>0</v>
@@ -13089,13 +13089,13 @@
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM63" s="0">
         <v>0</v>
       </c>
       <c r="BN63" s="0">
-        <v>0</v>
+        <v>0.58583846439468568</v>
       </c>
       <c r="BO63" s="0">
         <v>0</v>
@@ -13118,7 +13118,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" s="0">
         <v>0</v>
@@ -13133,7 +13133,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="0">
-        <v>0</v>
+        <v>0.99380831427699423</v>
       </c>
       <c r="K64" s="0">
         <v>0</v>
@@ -13169,7 +13169,7 @@
         <v>0</v>
       </c>
       <c r="V64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W64" s="0">
         <v>0</v>
@@ -13190,7 +13190,7 @@
         <v>0</v>
       </c>
       <c r="AC64" s="0">
-        <v>0</v>
+        <v>0.62968364668756849</v>
       </c>
       <c r="AD64" s="0">
         <v>0</v>
@@ -13214,7 +13214,7 @@
         <v>0</v>
       </c>
       <c r="AK64" s="0">
-        <v>0</v>
+        <v>0.95469589858556869</v>
       </c>
       <c r="AL64" s="0">
         <v>0</v>
@@ -13241,7 +13241,7 @@
         <v>0</v>
       </c>
       <c r="AT64" s="0">
-        <v>0</v>
+        <v>0.98910938923504932</v>
       </c>
       <c r="AU64" s="0">
         <v>0</v>
@@ -13259,7 +13259,7 @@
         <v>0</v>
       </c>
       <c r="AZ64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA64" s="0">
         <v>0</v>
@@ -13280,19 +13280,19 @@
         <v>0</v>
       </c>
       <c r="BG64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH64" s="0">
         <v>0</v>
       </c>
       <c r="BI64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
@@ -13307,7 +13307,7 @@
         <v>0</v>
       </c>
       <c r="BP64" s="0">
-        <v>0</v>
+        <v>0.82477995995177644</v>
       </c>
     </row>
     <row r="65">
@@ -13315,10 +13315,10 @@
         <v>0</v>
       </c>
       <c r="B65" s="0">
-        <v>0</v>
+        <v>0.79853757683489657</v>
       </c>
       <c r="C65" s="0">
-        <v>0</v>
+        <v>0.97467084394176418</v>
       </c>
       <c r="D65" s="0">
         <v>0</v>
@@ -13393,7 +13393,7 @@
         <v>0</v>
       </c>
       <c r="AB65" s="0">
-        <v>0</v>
+        <v>0.54637370651241901</v>
       </c>
       <c r="AC65" s="0">
         <v>0</v>
@@ -13408,13 +13408,13 @@
         <v>0</v>
       </c>
       <c r="AG65" s="0">
-        <v>0</v>
+        <v>0.76898309791059605</v>
       </c>
       <c r="AH65" s="0">
         <v>0</v>
       </c>
       <c r="AI65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ65" s="0">
         <v>0</v>
@@ -13462,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="AY65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ65" s="0">
         <v>0</v>
@@ -13471,7 +13471,7 @@
         <v>0</v>
       </c>
       <c r="BB65" s="0">
-        <v>1</v>
+        <v>0.62199011245704716</v>
       </c>
       <c r="BC65" s="0">
         <v>0</v>
@@ -13483,7 +13483,7 @@
         <v>0</v>
       </c>
       <c r="BF65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG65" s="0">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13542,7 +13542,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="0">
-        <v>0</v>
+        <v>0.86303901670706851</v>
       </c>
       <c r="J66" s="0">
         <v>0</v>
@@ -13569,7 +13569,7 @@
         <v>0</v>
       </c>
       <c r="R66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S66" s="0">
         <v>0</v>
@@ -13590,7 +13590,7 @@
         <v>0</v>
       </c>
       <c r="Y66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z66" s="0">
         <v>0</v>
@@ -13662,7 +13662,7 @@
         <v>0</v>
       </c>
       <c r="AW66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX66" s="0">
         <v>0</v>
@@ -13695,7 +13695,7 @@
         <v>0</v>
       </c>
       <c r="BH66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI66" s="0">
         <v>0</v>
@@ -13704,7 +13704,7 @@
         <v>0</v>
       </c>
       <c r="BK66" s="0">
-        <v>0</v>
+        <v>0.76621599302940924</v>
       </c>
       <c r="BL66" s="0">
         <v>0</v>
@@ -13716,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0</v>
+        <v>0.89530472804725292</v>
       </c>
       <c r="BP66" s="0">
         <v>0</v>
@@ -13760,7 +13760,7 @@
         <v>0</v>
       </c>
       <c r="M67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67" s="0">
         <v>0</v>
@@ -13802,7 +13802,7 @@
         <v>0</v>
       </c>
       <c r="AA67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB67" s="0">
         <v>0</v>
@@ -13862,7 +13862,7 @@
         <v>0</v>
       </c>
       <c r="AU67" s="0">
-        <v>0</v>
+        <v>0.88256521042121849</v>
       </c>
       <c r="AV67" s="0">
         <v>0</v>
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="AZ67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA67" s="0">
         <v>0</v>
@@ -13889,7 +13889,7 @@
         <v>0</v>
       </c>
       <c r="BD67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE67" s="0">
         <v>0</v>
@@ -13916,21 +13916,21 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>0</v>
+        <v>0.81754247254820844</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0</v>
+        <v>0.51809501058277607</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0</v>
+        <v>0.78415161858768401</v>
       </c>
       <c r="B68" s="0">
         <v>0</v>
@@ -13975,7 +13975,7 @@
         <v>0</v>
       </c>
       <c r="P68" s="0">
-        <v>0</v>
+        <v>0.70332012752060646</v>
       </c>
       <c r="Q68" s="0">
         <v>0</v>
@@ -14023,7 +14023,7 @@
         <v>0</v>
       </c>
       <c r="AF68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG68" s="0">
         <v>0</v>
@@ -14077,7 +14077,7 @@
         <v>0</v>
       </c>
       <c r="AX68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY68" s="0">
         <v>0</v>
@@ -14086,7 +14086,7 @@
         <v>0</v>
       </c>
       <c r="BA68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB68" s="0">
         <v>0</v>
@@ -14119,7 +14119,7 @@
         <v>0</v>
       </c>
       <c r="BL68" s="0">
-        <v>0</v>
+        <v>0.83212255611730246</v>
       </c>
       <c r="BM68" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>0</v>
+        <v>0.90331362098523171</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject5.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject5.xlsx
@@ -257,7 +257,7 @@
         <v>0</v>
       </c>
       <c r="AR1" s="0">
-        <v>0.51516788350107356</v>
+        <v>0.92957696593215666</v>
       </c>
       <c r="AS1" s="0">
         <v>0</v>
@@ -329,7 +329,7 @@
         <v>0</v>
       </c>
       <c r="BP1" s="0">
-        <v>0.59993430092741606</v>
+        <v>0.78415161858768401</v>
       </c>
     </row>
     <row r="2">
@@ -526,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="BM2" s="0">
-        <v>0.55867748528502426</v>
+        <v>0.79853757683489657</v>
       </c>
       <c r="BN2" s="0">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="AN3" s="0">
-        <v>0.7376627834049081</v>
+        <v>0.86675297542639285</v>
       </c>
       <c r="AO3" s="0">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="AT3" s="0">
-        <v>0.75023819002283387</v>
+        <v>0.98803741519232324</v>
       </c>
       <c r="AU3" s="0">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="BM3" s="0">
-        <v>0.70303591557004164</v>
+        <v>0.97467084394176418</v>
       </c>
       <c r="BN3" s="0">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>0.54875550857896571</v>
+        <v>0.62625711015017771</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="R4" s="0">
-        <v>0.63593364192858637</v>
+        <v>0.93814534976730712</v>
       </c>
       <c r="S4" s="0">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="0">
-        <v>0.68891980544355635</v>
+        <v>0.79790238709322847</v>
       </c>
       <c r="P5" s="0">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0.57254017131095303</v>
+        <v>0.67125795954864675</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
@@ -1833,13 +1833,13 @@
         <v>0</v>
       </c>
       <c r="T9" s="0">
-        <v>0.87102237142240257</v>
+        <v>0.94887493783895138</v>
       </c>
       <c r="U9" s="0">
         <v>0</v>
       </c>
       <c r="V9" s="0">
-        <v>0.86060891295195674</v>
+        <v>0.9184915094031989</v>
       </c>
       <c r="W9" s="0">
         <v>0</v>
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="AP9" s="0">
-        <v>0.63805842368432986</v>
+        <v>0.96937334373060569</v>
       </c>
       <c r="AQ9" s="0">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>0.52410213804279682</v>
+        <v>0.7804974477554345</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="AW10" s="0">
-        <v>0.66323817205557956</v>
+        <v>0.90351687061132857</v>
       </c>
       <c r="AX10" s="0">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="BL10" s="0">
-        <v>0.90981985770480844</v>
+        <v>0.99380831427699423</v>
       </c>
       <c r="BM10" s="0">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="0">
-        <v>0.60778847985184736</v>
+        <v>0.8584548301996503</v>
       </c>
       <c r="X11" s="0">
         <v>0</v>
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="BA11" s="0">
-        <v>0.57287977543890156</v>
+        <v>0.94364272360725843</v>
       </c>
       <c r="BB11" s="0">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="BH11" s="0">
-        <v>0.58420733725686458</v>
+        <v>0.61846329666006095</v>
       </c>
       <c r="BI11" s="0">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>0.58625534491064402</v>
+        <v>0.78633029028066437</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>0.55884980630631886</v>
+        <v>0.81810341218615235</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="AP13" s="0">
-        <v>0.74590316009069646</v>
+        <v>0.85271560276837433</v>
       </c>
       <c r="AQ13" s="0">
         <v>0</v>
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="AX13" s="0">
-        <v>0.76737964533370595</v>
+        <v>0.99443709697710614</v>
       </c>
       <c r="AY13" s="0">
         <v>0</v>
@@ -3027,7 +3027,7 @@
         <v>0.79790238709322847</v>
       </c>
       <c r="F15" s="0">
-        <v>0.56452108253539368</v>
+        <v>0.63554748137020889</v>
       </c>
       <c r="G15" s="0">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="AO15" s="0">
-        <v>0.58646195375770538</v>
+        <v>0.93093343431451214</v>
       </c>
       <c r="AP15" s="0">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="0">
-        <v>0.55026396163553926</v>
+        <v>0.79216742148820452</v>
       </c>
       <c r="H16" s="0">
         <v>0</v>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>0.68020337735492697</v>
+        <v>0.70554012816253175</v>
       </c>
       <c r="O16" s="0">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="AD16" s="0">
-        <v>0.54931013792852545</v>
+        <v>0.92125401607148005</v>
       </c>
       <c r="AE16" s="0">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="AV16" s="0">
-        <v>0.66654426904787234</v>
+        <v>0.93464108112162347</v>
       </c>
       <c r="AW16" s="0">
         <v>0</v>
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="BP16" s="0">
-        <v>0.52946675291872314</v>
+        <v>0.70332012752060646</v>
       </c>
     </row>
     <row r="17">
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="AW17" s="0">
-        <v>0.69380713165230845</v>
+        <v>0.78665618886472899</v>
       </c>
       <c r="AX17" s="0">
-        <v>0.56991538857212509</v>
+        <v>0.85243278671776423</v>
       </c>
       <c r="AY17" s="0">
         <v>0</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="BC17" s="0">
-        <v>0.56744657074896976</v>
+        <v>0.72696103351835983</v>
       </c>
       <c r="BD17" s="0">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="0">
-        <v>0.55969329735524398</v>
+        <v>0.96442288401593979</v>
       </c>
       <c r="P18" s="0">
         <v>0</v>
@@ -3848,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="0">
-        <v>0.67141864461758571</v>
+        <v>0.8812038023523332</v>
       </c>
       <c r="F19" s="0">
         <v>0</v>
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="0">
-        <v>0.80620377926405296</v>
+        <v>0.8081945529964728</v>
       </c>
       <c r="F20" s="0">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="0">
-        <v>0.69759142428762444</v>
+        <v>0.73786341252292575</v>
       </c>
       <c r="L20" s="0">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="0">
-        <v>0.77522282708759882</v>
+        <v>0.80161034449233481</v>
       </c>
       <c r="C21" s="0">
         <v>0</v>
@@ -4263,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="0">
-        <v>0.84451204031252891</v>
+        <v>0.94550258220418493</v>
       </c>
       <c r="G21" s="0">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>0.56347980968162037</v>
+        <v>0.78143366014060045</v>
       </c>
       <c r="V23" s="0">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="0">
-        <v>0.69504440351374241</v>
+        <v>0.96792828592148794</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
@@ -4944,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="0">
-        <v>0.92825469109022773</v>
+        <v>0.99064502157643752</v>
       </c>
       <c r="AB24" s="0">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="AU24" s="0">
-        <v>0.78335519807761533</v>
+        <v>0.95204052607950984</v>
       </c>
       <c r="AV24" s="0">
         <v>0</v>
@@ -5141,13 +5141,13 @@
         <v>0</v>
       </c>
       <c r="X25" s="0">
-        <v>0.57867676845681482</v>
+        <v>0.75823588238105089</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>0.54246256760289968</v>
+        <v>0.58352569973355894</v>
       </c>
       <c r="AA25" s="0">
         <v>0</v>
@@ -5329,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="R26" s="0">
-        <v>0.60165930225527986</v>
+        <v>0.71921743292993034</v>
       </c>
       <c r="S26" s="0">
         <v>0</v>
@@ -5386,10 +5386,10 @@
         <v>0</v>
       </c>
       <c r="AK26" s="0">
-        <v>0.51185382044646799</v>
+        <v>0.53219694260678541</v>
       </c>
       <c r="AL26" s="0">
-        <v>0.79875289663389248</v>
+        <v>0.86093327095808858</v>
       </c>
       <c r="AM26" s="0">
         <v>0</v>
@@ -5458,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="BI26" s="0">
-        <v>0.54551134284837288</v>
+        <v>0.763749341733025</v>
       </c>
       <c r="BJ26" s="0">
         <v>0</v>
@@ -5493,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="0">
-        <v>0.56070399292525563</v>
+        <v>0.63871500336188536</v>
       </c>
       <c r="E27" s="0">
         <v>0</v>
@@ -5583,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="AH27" s="0">
-        <v>0.55010995176767707</v>
+        <v>0.90030566683102342</v>
       </c>
       <c r="AI27" s="0">
         <v>0</v>
@@ -5601,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="AN27" s="0">
-        <v>0.51562705407980303</v>
+        <v>0.56400163972864048</v>
       </c>
       <c r="AO27" s="0">
         <v>0</v>
@@ -5658,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="BG27" s="0">
-        <v>0.63263684208704096</v>
+        <v>0.80549310249529693</v>
       </c>
       <c r="BH27" s="0">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0.83727422327246193</v>
+        <v>0.98907036341755183</v>
       </c>
       <c r="AA28" s="0">
         <v>0</v>
@@ -5876,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="BK28" s="0">
-        <v>0.51053692147924834</v>
+        <v>0.74667586546891307</v>
       </c>
       <c r="BL28" s="0">
         <v>0</v>
@@ -5959,7 +5959,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="0">
-        <v>0.92357697567003916</v>
+        <v>0.93246506051904876</v>
       </c>
       <c r="W29" s="0">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="AS29" s="0">
-        <v>0.55299366141227679</v>
+        <v>0.57713401774223838</v>
       </c>
       <c r="AT29" s="0">
         <v>0</v>
@@ -6076,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="BI29" s="0">
-        <v>0.80061458652584994</v>
+        <v>0.9512919262844155</v>
       </c>
       <c r="BJ29" s="0">
         <v>0</v>
@@ -6108,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="0">
-        <v>0.56039440744869895</v>
+        <v>0.5641226821529759</v>
       </c>
       <c r="D30" s="0">
         <v>0</v>
@@ -6249,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="AX30" s="0">
-        <v>0.82456234005790119</v>
+        <v>0.93714150089371318</v>
       </c>
       <c r="AY30" s="0">
         <v>0</v>
@@ -6285,7 +6285,7 @@
         <v>0</v>
       </c>
       <c r="BJ30" s="0">
-        <v>0.52129262946667509</v>
+        <v>0.67918673149659148</v>
       </c>
       <c r="BK30" s="0">
         <v>0</v>
@@ -6377,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="0">
-        <v>0.8255070253070842</v>
+        <v>0.99316351686560533</v>
       </c>
       <c r="Y31" s="0">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>0.61020545865997311</v>
+        <v>0.62478521645952989</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6473,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="BD31" s="0">
-        <v>0.870599683469647</v>
+        <v>0.89542314960633562</v>
       </c>
       <c r="BE31" s="0">
         <v>0</v>
@@ -6613,7 +6613,7 @@
         <v>0.9714749127929011</v>
       </c>
       <c r="AH32" s="0">
-        <v>0.61105292294201974</v>
+        <v>0.86925871670030674</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6768,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="0">
-        <v>0.56814683649960562</v>
+        <v>0.92464007425748651</v>
       </c>
       <c r="R33" s="0">
         <v>0</v>
@@ -6813,7 +6813,7 @@
         <v>0.62478521645952989</v>
       </c>
       <c r="AF33" s="0">
-        <v>0.6086926055859716</v>
+        <v>0.9714749127929011</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
@@ -6912,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="BM33" s="0">
-        <v>0.763769508179867</v>
+        <v>0.76898309791059605</v>
       </c>
       <c r="BN33" s="0">
         <v>0</v>
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0.80473440953531494</v>
+        <v>0.85708912346301913</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="AO34" s="0">
-        <v>0.84578853696869905</v>
+        <v>0.96745004343059193</v>
       </c>
       <c r="AP34" s="0">
         <v>0</v>
@@ -7067,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="AV34" s="0">
-        <v>0.69601805820324381</v>
+        <v>0.79893800583716346</v>
       </c>
       <c r="AW34" s="0">
         <v>0</v>
@@ -7165,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="0">
-        <v>0.63266211380574777</v>
+        <v>0.92034973780310958</v>
       </c>
       <c r="M35" s="0">
         <v>0</v>
@@ -7195,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="0">
-        <v>0.67830723058395881</v>
+        <v>0.78698267753933293</v>
       </c>
       <c r="W35" s="0">
         <v>0</v>
@@ -7356,7 +7356,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="0">
-        <v>0.51246736737578436</v>
+        <v>0.86451821944838692</v>
       </c>
       <c r="H36" s="0">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="0">
-        <v>0.74947195583728909</v>
+        <v>0.92230778853341566</v>
       </c>
       <c r="AD36" s="0">
         <v>0</v>
@@ -7449,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="AL36" s="0">
-        <v>0.56597832167667672</v>
+        <v>0.95566153528034614</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0.51894451112410933</v>
+        <v>0.94490844807819974</v>
       </c>
       <c r="AJ37" s="0">
         <v>0</v>
@@ -7658,7 +7658,7 @@
         <v>0</v>
       </c>
       <c r="AM37" s="0">
-        <v>0.66823420128091349</v>
+        <v>0.96039578962858074</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7733,7 +7733,7 @@
         <v>0</v>
       </c>
       <c r="BL37" s="0">
-        <v>0.66917410736967886</v>
+        <v>0.95469589858556869</v>
       </c>
       <c r="BM37" s="0">
         <v>0</v>
@@ -7900,7 +7900,7 @@
         <v>0</v>
       </c>
       <c r="AY38" s="0">
-        <v>0.60703341342462203</v>
+        <v>0.87711670518517171</v>
       </c>
       <c r="AZ38" s="0">
         <v>0</v>
@@ -7956,7 +7956,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.57979577696235929</v>
+        <v>0.73438722394983769</v>
       </c>
       <c r="B39" s="0">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="AO39" s="0">
-        <v>0.65940749299748769</v>
+        <v>0.77924633052378356</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8112,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="BA39" s="0">
-        <v>0.55307148013188656</v>
+        <v>0.78018175717117044</v>
       </c>
       <c r="BB39" s="0">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="BJ39" s="0">
-        <v>0.86836029329988595</v>
+        <v>0.89895365614754441</v>
       </c>
       <c r="BK39" s="0">
         <v>0</v>
@@ -8288,7 +8288,7 @@
         <v>0</v>
       </c>
       <c r="AQ40" s="0">
-        <v>0.59141055750071037</v>
+        <v>0.60035967194625783</v>
       </c>
       <c r="AR40" s="0">
         <v>0</v>
@@ -8461,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="AF41" s="0">
-        <v>0.80061843944711275</v>
+        <v>0.85421023595547385</v>
       </c>
       <c r="AG41" s="0">
         <v>0</v>
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="AF42" s="0">
-        <v>0.5071200735307978</v>
+        <v>0.85383413412198728</v>
       </c>
       <c r="AG42" s="0">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="0">
-        <v>0.51500580572806487</v>
+        <v>0.60055808306234315</v>
       </c>
       <c r="D43" s="0">
         <v>0</v>
@@ -8876,7 +8876,7 @@
         <v>0</v>
       </c>
       <c r="AG43" s="0">
-        <v>0.5928718421401673</v>
+        <v>0.62217877659435206</v>
       </c>
       <c r="AH43" s="0">
         <v>0</v>
@@ -8900,7 +8900,7 @@
         <v>0.60035967194625783</v>
       </c>
       <c r="AO43" s="0">
-        <v>0.53340715791859505</v>
+        <v>0.81616974204339821</v>
       </c>
       <c r="AP43" s="0">
         <v>0</v>
@@ -9013,7 +9013,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="0">
-        <v>0.63030919557223752</v>
+        <v>0.98706228167311627</v>
       </c>
       <c r="K44" s="0">
         <v>0</v>
@@ -9028,7 +9028,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="0">
-        <v>0.56847720339947605</v>
+        <v>0.94425092197857163</v>
       </c>
       <c r="P44" s="0">
         <v>0</v>
@@ -9142,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="BA44" s="0">
-        <v>0.60938028057048377</v>
+        <v>0.79991365276062676</v>
       </c>
       <c r="BB44" s="0">
         <v>0</v>
@@ -9231,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="0">
-        <v>0.55263183385156434</v>
+        <v>0.68425908034559924</v>
       </c>
       <c r="O45" s="0">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="0">
-        <v>0.6493159783745821</v>
+        <v>0.93944912814751014</v>
       </c>
       <c r="I46" s="0">
         <v>0</v>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0.5826279129040951</v>
+        <v>0.88925880900406895</v>
       </c>
       <c r="AS46" s="0">
         <v>0</v>
@@ -9587,7 +9587,7 @@
         <v>0</v>
       </c>
       <c r="BL46" s="0">
-        <v>0.79132514166456069</v>
+        <v>0.98910938923504932</v>
       </c>
       <c r="BM46" s="0">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="T47" s="0">
-        <v>0.54691338925828004</v>
+        <v>0.6829617407261368</v>
       </c>
       <c r="U47" s="0">
         <v>0</v>
@@ -9733,7 +9733,7 @@
         <v>0</v>
       </c>
       <c r="AR47" s="0">
-        <v>0.5445166294174234</v>
+        <v>0.99906141342462162</v>
       </c>
       <c r="AS47" s="0">
         <v>0</v>
@@ -9802,7 +9802,7 @@
         <v>0</v>
       </c>
       <c r="BO47" s="0">
-        <v>0.73101047537087838</v>
+        <v>0.88256521042121849</v>
       </c>
       <c r="BP47" s="0">
         <v>0</v>
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="AY48" s="0">
-        <v>0.63275381538427156</v>
+        <v>0.89318838048744531</v>
       </c>
       <c r="AZ48" s="0">
         <v>0</v>
@@ -10088,7 +10088,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="0">
-        <v>0.56586882693558593</v>
+        <v>0.83700566637854901</v>
       </c>
       <c r="Z49" s="0">
         <v>0</v>
@@ -10184,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="BE49" s="0">
-        <v>0.74136172974538672</v>
+        <v>0.85743041297769906</v>
       </c>
       <c r="BF49" s="0">
         <v>0</v>
@@ -10315,7 +10315,7 @@
         <v>0</v>
       </c>
       <c r="AF50" s="0">
-        <v>0.5909675668714558</v>
+        <v>0.76323498931429345</v>
       </c>
       <c r="AG50" s="0">
         <v>0</v>
@@ -10396,7 +10396,7 @@
         <v>0</v>
       </c>
       <c r="BG50" s="0">
-        <v>0.60774881087258792</v>
+        <v>0.69608135863357012</v>
       </c>
       <c r="BH50" s="0">
         <v>0</v>
@@ -10861,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="0">
-        <v>0.8181226157320387</v>
+        <v>0.84607568586839565</v>
       </c>
       <c r="I53" s="0">
         <v>0</v>
@@ -10993,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="AZ53" s="0">
-        <v>0.63519164311089416</v>
+        <v>0.90125540160170925</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
@@ -11014,7 +11014,7 @@
         <v>0</v>
       </c>
       <c r="BG53" s="0">
-        <v>0.53773587361687225</v>
+        <v>0.57481459062163165</v>
       </c>
       <c r="BH53" s="0">
         <v>0</v>
@@ -11199,10 +11199,10 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>0.57189331971130308</v>
+        <v>0.68447428745668748</v>
       </c>
       <c r="BA54" s="0">
-        <v>0.63163442380875812</v>
+        <v>0.8848658251180066</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11282,7 +11282,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="0">
-        <v>0.81442567649968822</v>
+        <v>0.8792376391997343</v>
       </c>
       <c r="L55" s="0">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="S55" s="0">
-        <v>0.53468429048563382</v>
+        <v>0.87762460635670947</v>
       </c>
       <c r="T55" s="0">
         <v>0</v>
@@ -11408,7 +11408,7 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>0.95999310743914557</v>
+        <v>0.99816421335729788</v>
       </c>
       <c r="BB55" s="0">
         <v>0</v>
@@ -11494,10 +11494,10 @@
         <v>0</v>
       </c>
       <c r="M56" s="0">
-        <v>0.7170773757431177</v>
+        <v>0.73380930213051587</v>
       </c>
       <c r="N56" s="0">
-        <v>0.62894935110298822</v>
+        <v>0.99897986133339867</v>
       </c>
       <c r="O56" s="0">
         <v>0</v>
@@ -11802,7 +11802,7 @@
         <v>0</v>
       </c>
       <c r="AU57" s="0">
-        <v>0.77835820772837661</v>
+        <v>0.7857651722357093</v>
       </c>
       <c r="AV57" s="0">
         <v>0</v>
@@ -11826,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0.51405995382788849</v>
+        <v>0.59143694828679627</v>
       </c>
       <c r="BD57" s="0">
         <v>0</v>
@@ -11939,7 +11939,7 @@
         <v>0</v>
       </c>
       <c r="X58" s="0">
-        <v>0.55749629801115663</v>
+        <v>0.99382643351201017</v>
       </c>
       <c r="Y58" s="0">
         <v>0</v>
@@ -12005,7 +12005,7 @@
         <v>0</v>
       </c>
       <c r="AT58" s="0">
-        <v>0.51693271011839159</v>
+        <v>0.58957314743178069</v>
       </c>
       <c r="AU58" s="0">
         <v>0</v>
@@ -12038,7 +12038,7 @@
         <v>0</v>
       </c>
       <c r="BE58" s="0">
-        <v>0.72406004195600715</v>
+        <v>0.73818140061930837</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
@@ -12047,7 +12047,7 @@
         <v>0</v>
       </c>
       <c r="BH58" s="0">
-        <v>0.72596787732512313</v>
+        <v>0.92607688347465955</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12378,7 +12378,7 @@
         <v>0</v>
       </c>
       <c r="AG60" s="0">
-        <v>0.75092954176193238</v>
+        <v>0.95584679951220786</v>
       </c>
       <c r="AH60" s="0">
         <v>0</v>
@@ -12423,7 +12423,7 @@
         <v>0</v>
       </c>
       <c r="AV60" s="0">
-        <v>0.74807035878123407</v>
+        <v>0.89054247189628732</v>
       </c>
       <c r="AW60" s="0">
         <v>0</v>
@@ -12584,7 +12584,7 @@
         <v>0</v>
       </c>
       <c r="AG61" s="0">
-        <v>0.85562657249888452</v>
+        <v>0.90015189268249918</v>
       </c>
       <c r="AH61" s="0">
         <v>0</v>
@@ -12599,7 +12599,7 @@
         <v>0</v>
       </c>
       <c r="AL61" s="0">
-        <v>0.65868413606723775</v>
+        <v>0.94099577015708324</v>
       </c>
       <c r="AM61" s="0">
         <v>0</v>
@@ -12671,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0.7026468041124716</v>
+        <v>0.95052813902697197</v>
       </c>
       <c r="BK61" s="0">
         <v>0</v>
@@ -12706,7 +12706,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="0">
-        <v>0.67940805406204574</v>
+        <v>0.9608511588163362</v>
       </c>
       <c r="F62" s="0">
         <v>0</v>
@@ -13062,7 +13062,7 @@
         <v>0</v>
       </c>
       <c r="BC63" s="0">
-        <v>0.66145893584994297</v>
+        <v>0.9290631172168804</v>
       </c>
       <c r="BD63" s="0">
         <v>0</v>
@@ -13095,7 +13095,7 @@
         <v>0</v>
       </c>
       <c r="BN63" s="0">
-        <v>0.58583846439468568</v>
+        <v>0.76621599302940924</v>
       </c>
       <c r="BO63" s="0">
         <v>0</v>
@@ -13190,7 +13190,7 @@
         <v>0</v>
       </c>
       <c r="AC64" s="0">
-        <v>0.62968364668756849</v>
+        <v>0.85256331881808767</v>
       </c>
       <c r="AD64" s="0">
         <v>0</v>
@@ -13307,7 +13307,7 @@
         <v>0</v>
       </c>
       <c r="BP64" s="0">
-        <v>0.82477995995177644</v>
+        <v>0.83212255611730246</v>
       </c>
     </row>
     <row r="65">
@@ -13393,7 +13393,7 @@
         <v>0</v>
       </c>
       <c r="AB65" s="0">
-        <v>0.54637370651241901</v>
+        <v>0.82973514069287901</v>
       </c>
       <c r="AC65" s="0">
         <v>0</v>
@@ -13471,7 +13471,7 @@
         <v>0</v>
       </c>
       <c r="BB65" s="0">
-        <v>0.62199011245704716</v>
+        <v>0.86613068728913323</v>
       </c>
       <c r="BC65" s="0">
         <v>0</v>
@@ -13542,7 +13542,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="0">
-        <v>0.86303901670706851</v>
+        <v>0.97478409071597116</v>
       </c>
       <c r="J66" s="0">
         <v>0</v>
@@ -13919,13 +13919,13 @@
         <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>0.81754247254820844</v>
+        <v>0.89530472804725292</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0.51809501058277607</v>
+        <v>0.90331362098523171</v>
       </c>
     </row>
     <row r="68">
